--- a/xlsx/克里斯托弗·哥伦布_intext.xlsx
+++ b/xlsx/克里斯托弗·哥伦布_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="383">
   <si>
     <t>克里斯托弗·哥伦布</t>
   </si>
@@ -29,7 +29,7 @@
     <t>哥伦布 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_克里斯托弗·哥伦布</t>
+    <t>政策_政策_美国_克里斯托弗·哥伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E9%82%A3%E4%BA%9A%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>意大利語</t>
+    <t>意大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BD%97%E5%B0%BC%E4%BA%9A%E8%AF%AD</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E4%B8%8A%E5%B0%87</t>
   </si>
   <si>
-    <t>海軍上將</t>
+    <t>海军上将</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%9D%A3</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E6%89%98%E6%B4%9B%E6%A2%85%E5%A5%A7%C2%B7%E5%93%A5%E5%80%AB%E5%B8%83</t>
   </si>
   <si>
-    <t>巴爾托洛梅奧·哥倫布</t>
+    <t>巴尔托洛梅奥·哥伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E9%99%A9%E5%AE%B6</t>
@@ -131,13 +131,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E9%82%A3%E4%BA%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>熱那亞共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>義大利歷史</t>
+    <t>义大利历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E5%90%9B%E4%B8%BB</t>
@@ -179,7 +176,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>新大陸</t>
+    <t>新大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BB%B4%E5%88%A9%E4%BA%9A%E4%B8%BB%E6%95%99%E5%BA%A7%E5%A0%82</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>東印度群島</t>
+    <t>东印度群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
@@ -281,21 +278,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%A4%AB%C2%B7%E5%9F%83%E9%87%8C%E5%85%8B%E6%9D%BE</t>
   </si>
   <si>
-    <t>萊夫·埃里克松</t>
+    <t>莱夫·埃里克松</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%88%BE%E6%96%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>諾爾斯人</t>
+    <t>诺尔斯人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83</t>
   </si>
   <si>
@@ -311,9 +305,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E9%82%A3%E4%BA%9E</t>
   </si>
   <si>
-    <t>熱那亞</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Domenico_Colombo</t>
   </si>
   <si>
@@ -377,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91</t>
   </si>
   <si>
-    <t>黃金</t>
+    <t>黄金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E6%9B%BC%E5%9C%9F%E8%80%B3%E5%85%B6%E5%B8%9D%E5%9B%BD</t>
@@ -401,19 +392,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -431,13 +422,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%8E%8E%E8%B2%9D%E6%8B%89%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>伊莎貝拉一世</t>
+    <t>伊莎贝拉一世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>西班牙議會</t>
+    <t>西班牙议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%E4%BA%8C%E4%B8%96_(%E9%98%BF%E6%8B%89%E8%B4%A1)</t>
@@ -473,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%88%BE%E5%A4%9A%E7%93%A6_(%E8%A5%BF%E7%8F%AD%E7%89%99)</t>
   </si>
   <si>
-    <t>科爾多瓦 (西班牙)</t>
+    <t>科尔多瓦 (西班牙)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%90%9B%E4%B8%BB%E5%9F%8E%E5%A0%A1</t>
@@ -521,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E6%B0%91%E6%97%8F</t>
   </si>
   <si>
-    <t>歐洲民族</t>
+    <t>欧洲民族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%A4%A7%E5%8F%91%E7%8E%B0</t>
@@ -557,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83%E9%A6%96%E8%88%AA%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>哥倫布首航艦隊</t>
+    <t>哥伦布首航舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%B4%9B%E6%96%AF-%E5%BE%B7%E6%8B%89%E5%BC%97%E9%BE%99%E7%89%B9%E6%8B%89</t>
@@ -587,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E7%B6%AD%E7%88%BE%E5%B8%86%E8%88%B9</t>
   </si>
   <si>
-    <t>卡拉維爾帆船</t>
+    <t>卡拉维尔帆船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%A1%94%E5%8F%B7</t>
@@ -647,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%AC%E5%8D%A1%E9%9B%85%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>廬卡雅群島</t>
+    <t>庐卡雅群岛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Guanahani</t>
@@ -743,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%91%AA%E5%88%A9%E4%BA%9E%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖瑪利亞島</t>
+    <t>圣玛利亚岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%98%82%E4%BA%8C%E4%B8%96</t>
@@ -761,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%B9%E6%BF%9F%E5%90%84%E6%9C%83</t>
   </si>
   <si>
-    <t>聖方濟各會</t>
+    <t>圣方济各会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BB%B4%E5%88%A9%E4%BA%9A</t>
@@ -869,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E5%85%AD%E4%B8%96</t>
   </si>
   <si>
-    <t>亞歷山大六世</t>
+    <t>亚历山大六世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E5%B8%83%E6%97%A5</t>
@@ -887,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BF%92%E4%BF%97</t>
   </si>
   <si>
-    <t>習俗</t>
+    <t>习俗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -917,25 +908,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E5%88%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伯克利 (加利福尼亞州)</t>
+    <t>伯克利 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83%E5%A4%A7%E4%BA%A4%E6%8F%9B</t>
   </si>
   <si>
-    <t>哥倫布大交換</t>
+    <t>哥伦布大交换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%88%AA%E6%B5%B7%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>大航海時代</t>
+    <t>大航海时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -947,9 +938,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Fate/Grand_Order</t>
   </si>
   <si>
@@ -1001,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E7%B4%A2%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>探索頻道</t>
+    <t>探索频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%81%94%E7%A4%BE</t>
@@ -1043,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%C2%B7%E6%AD%90%E6%96%87</t>
   </si>
   <si>
-    <t>華盛頓·歐文</t>
+    <t>华盛顿·欧文</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/A_History_of_the_Life_and_Voyages_of_Christopher_Columbus</t>
@@ -1055,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E7%88%BE%C2%B7%E8%89%BE%E7%95%A5%E7%89%B9%C2%B7%E8%8E%AB%E9%87%8C%E6%A3%AE</t>
   </si>
   <si>
-    <t>塞繆爾·艾略特·莫里森</t>
+    <t>塞缪尔·艾略特·莫里森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%92%82%E8%8A%AC%C2%B7%E8%8C%A8%E5%A8%81%E6%A0%BC</t>
@@ -1085,13 +1073,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E7%9B%AE%E9%8C%84</t>
   </si>
   <si>
-    <t>聯合目錄</t>
+    <t>联合目录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1109,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1127,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1145,13 +1133,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2068,7 +2056,7 @@
         <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2094,10 +2082,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>11</v>
@@ -2123,10 +2111,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2152,10 +2140,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -2181,10 +2169,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>35</v>
@@ -2210,10 +2198,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
@@ -2239,10 +2227,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2268,10 +2256,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2297,10 +2285,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2326,10 +2314,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -2355,10 +2343,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2384,10 +2372,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2413,10 +2401,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2442,10 +2430,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2471,10 +2459,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2500,10 +2488,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>6</v>
@@ -2529,10 +2517,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2558,10 +2546,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2587,10 +2575,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2616,10 +2604,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -2645,10 +2633,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2674,10 +2662,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2703,10 +2691,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>4</v>
@@ -2732,10 +2720,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -2761,10 +2749,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2790,10 +2778,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2819,10 +2807,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2848,10 +2836,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2877,10 +2865,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2906,10 +2894,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2935,10 +2923,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
@@ -2964,10 +2952,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2993,10 +2981,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3022,10 +3010,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3051,10 +3039,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -3080,10 +3068,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3109,10 +3097,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3138,10 +3126,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3167,10 +3155,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3196,10 +3184,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G58" t="n">
         <v>7</v>
@@ -3225,10 +3213,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3254,10 +3242,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3283,10 +3271,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3312,10 +3300,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3341,10 +3329,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3370,10 +3358,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3399,10 +3387,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3428,10 +3416,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3457,10 +3445,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G67" t="n">
         <v>6</v>
@@ -3486,10 +3474,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G68" t="n">
         <v>9</v>
@@ -3515,10 +3503,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3544,10 +3532,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3573,10 +3561,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G71" t="n">
         <v>5</v>
@@ -3602,10 +3590,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G72" t="n">
         <v>7</v>
@@ -3631,10 +3619,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3660,10 +3648,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3689,10 +3677,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3718,10 +3706,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3747,10 +3735,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3776,10 +3764,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3805,10 +3793,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G79" t="n">
         <v>8</v>
@@ -3834,10 +3822,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3863,10 +3851,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3892,10 +3880,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3921,10 +3909,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3950,10 +3938,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -3979,10 +3967,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
         <v>45</v>
-      </c>
-      <c r="F85" t="s">
-        <v>46</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4008,10 +3996,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G86" t="n">
         <v>18</v>
@@ -4037,10 +4025,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>50</v>
+      </c>
+      <c r="F87" t="s">
         <v>51</v>
-      </c>
-      <c r="F87" t="s">
-        <v>52</v>
       </c>
       <c r="G87" t="n">
         <v>10</v>
@@ -4066,10 +4054,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4095,10 +4083,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4124,10 +4112,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4153,10 +4141,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4182,10 +4170,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4211,10 +4199,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G93" t="n">
         <v>4</v>
@@ -4240,10 +4228,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4269,10 +4257,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4298,10 +4286,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4327,10 +4315,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4356,10 +4344,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4385,10 +4373,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>7</v>
@@ -4414,10 +4402,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -4443,10 +4431,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4472,10 +4460,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4501,10 +4489,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4530,10 +4518,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4559,10 +4547,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4588,10 +4576,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4617,10 +4605,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4646,10 +4634,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4675,10 +4663,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4704,10 +4692,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>70</v>
+      </c>
+      <c r="F110" t="s">
         <v>71</v>
-      </c>
-      <c r="F110" t="s">
-        <v>72</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4733,10 +4721,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>72</v>
+      </c>
+      <c r="F111" t="s">
         <v>73</v>
-      </c>
-      <c r="F111" t="s">
-        <v>74</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4762,10 +4750,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4791,10 +4779,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4820,10 +4808,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F114" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4849,10 +4837,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4878,10 +4866,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4907,10 +4895,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4936,10 +4924,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4965,10 +4953,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G119" t="n">
         <v>6</v>
@@ -4994,10 +4982,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5023,10 +5011,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5052,10 +5040,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5081,10 +5069,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5110,10 +5098,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5139,10 +5127,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5168,10 +5156,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5197,10 +5185,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5226,10 +5214,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5255,10 +5243,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5284,10 +5272,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5313,10 +5301,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G131" t="n">
         <v>7</v>
@@ -5342,10 +5330,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5371,10 +5359,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5400,10 +5388,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5429,10 +5417,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5458,10 +5446,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G136" t="n">
         <v>6</v>
@@ -5487,10 +5475,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5516,10 +5504,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5545,10 +5533,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5574,10 +5562,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5603,10 +5591,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5632,10 +5620,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G142" t="n">
         <v>8</v>
@@ -5661,10 +5649,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G143" t="n">
         <v>8</v>
@@ -5690,10 +5678,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5719,10 +5707,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -5748,10 +5736,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5777,10 +5765,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5806,10 +5794,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5835,10 +5823,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G149" t="n">
         <v>7</v>
@@ -5864,10 +5852,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5893,10 +5881,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5922,10 +5910,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5951,10 +5939,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -5980,10 +5968,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>80</v>
+      </c>
+      <c r="F154" t="s">
         <v>81</v>
-      </c>
-      <c r="F154" t="s">
-        <v>82</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6009,10 +5997,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6038,10 +6026,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6067,10 +6055,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6096,10 +6084,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G158" t="n">
         <v>5</v>
@@ -6125,10 +6113,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6154,10 +6142,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6183,10 +6171,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6212,10 +6200,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>67</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6241,10 +6229,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6270,10 +6258,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -6299,10 +6287,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6328,10 +6316,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>3</v>
@@ -6357,10 +6345,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6386,10 +6374,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6415,10 +6403,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -6444,10 +6432,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6473,10 +6461,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6502,10 +6490,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6531,10 +6519,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -6560,10 +6548,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6589,10 +6577,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6618,10 +6606,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6647,10 +6635,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6676,10 +6664,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6705,10 +6693,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -6734,10 +6722,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G180" t="n">
         <v>3</v>
@@ -6763,10 +6751,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F181" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6792,10 +6780,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F182" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6821,10 +6809,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6850,10 +6838,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6879,10 +6867,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F185" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6908,10 +6896,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -6937,10 +6925,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6966,10 +6954,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -6995,10 +6983,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7024,10 +7012,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F190" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7053,10 +7041,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7082,10 +7070,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F192" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7111,10 +7099,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F193" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7140,10 +7128,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F194" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7169,10 +7157,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F195" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7198,10 +7186,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F196" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7227,10 +7215,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F197" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7256,10 +7244,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F198" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7285,10 +7273,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F199" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7314,10 +7302,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7343,10 +7331,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F201" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7372,10 +7360,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
